--- a/01_Linear/Nachtfliegen_02.xlsx
+++ b/01_Linear/Nachtfliegen_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/01_Linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7688F9-D839-4447-BDFF-93058AAE2BB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32726C06-485B-D449-A330-0F0ED66EDCB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2520" windowWidth="27640" windowHeight="16940" activeTab="6" xr2:uid="{A7FC1D30-F79D-BE4F-B04A-26AC788931EB}"/>
+    <workbookView xWindow="2940" yWindow="2520" windowWidth="27640" windowHeight="16940" activeTab="7" xr2:uid="{A7FC1D30-F79D-BE4F-B04A-26AC788931EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -20,69 +20,100 @@
     <sheet name="Abstract2" sheetId="5" r:id="rId5"/>
     <sheet name="Abstract2Model" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sensitivity Report 1" sheetId="9" r:id="rId8"/>
+    <sheet name="Abstract2_vary" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="quads">Sheet7!$B$2:$E$6</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">Abstract2_nice!$B$10:$C$10</definedName>
+    <definedName name="solver_adj" localSheetId="8" hidden="1">Abstract2_vary!$B$10:$C$10</definedName>
     <definedName name="solver_adj" localSheetId="5" hidden="1">Abstract2Model!$B$10:$D$10</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="8" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">Abstract2_nice!$D$6:$D$8</definedName>
+    <definedName name="solver_lhs1" localSheetId="8" hidden="1">Abstract2_vary!$D$6:$D$8</definedName>
     <definedName name="solver_lhs1" localSheetId="5" hidden="1">Abstract2Model!$E$6:$E$8</definedName>
     <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="8" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="8" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">Abstract2_nice!$D$4</definedName>
+    <definedName name="solver_opt" localSheetId="8" hidden="1">Abstract2_vary!$D$4</definedName>
     <definedName name="solver_opt" localSheetId="5" hidden="1">Abstract2Model!$E$4</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="8" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">Abstract2_nice!$F$6:$F$8</definedName>
+    <definedName name="solver_rhs1" localSheetId="8" hidden="1">Abstract2_vary!$F$6:$F$8</definedName>
     <definedName name="solver_rhs1" localSheetId="5" hidden="1">Abstract2Model!$G$6:$G$8</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="8" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="8" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -98,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="87">
   <si>
     <t>Nachtfliegen_02</t>
   </si>
@@ -278,6 +309,87 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.31 Sensitivity Report</t>
+  </si>
+  <si>
+    <t>Worksheet: [Nachtfliegen_02.xlsx]Abstract2_vary</t>
+  </si>
+  <si>
+    <t>Report Created: 2/4/20 3:05:53 PM</t>
+  </si>
+  <si>
+    <t>Variable Cells</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Reduced</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Allowable</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>R.H. Side</t>
+  </si>
+  <si>
+    <t>$B$10</t>
+  </si>
+  <si>
+    <t>Changing Cells Thing1</t>
+  </si>
+  <si>
+    <t>$C$10</t>
+  </si>
+  <si>
+    <t>Changing Cells Thing2</t>
+  </si>
+  <si>
+    <t>$D$6</t>
+  </si>
+  <si>
+    <t>$D$7</t>
+  </si>
+  <si>
+    <t>$D$8</t>
   </si>
 </sst>
 </file>
@@ -288,7 +400,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -312,6 +424,22 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -343,7 +471,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -351,12 +479,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -379,6 +545,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1544,7 +1719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C354B7E-590A-8548-B457-7EB6020E920E}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="238" zoomScaleNormal="238" workbookViewId="0">
+    <sheetView zoomScale="238" zoomScaleNormal="238" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1648,7 +1823,7 @@
         <v>42</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP(B8,quads,2,FALSE)</f>
+        <f t="shared" ref="C8:C14" si="0">VLOOKUP(B8,quads,2,FALSE)</f>
         <v>QuadOne</v>
       </c>
     </row>
@@ -1657,7 +1832,7 @@
         <v>53</v>
       </c>
       <c r="C9" t="e">
-        <f>VLOOKUP(B9,quads,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -1666,7 +1841,7 @@
         <v>43</v>
       </c>
       <c r="C10" t="str">
-        <f>VLOOKUP(B10,quads,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>QuadAwesome</v>
       </c>
     </row>
@@ -1675,7 +1850,7 @@
         <v>54</v>
       </c>
       <c r="C11" t="e">
-        <f>VLOOKUP(B11,quads,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -1684,7 +1859,7 @@
         <v>44</v>
       </c>
       <c r="C12" t="str">
-        <f>VLOOKUP(B12,quads,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>QuadThensome</v>
       </c>
     </row>
@@ -1693,7 +1868,7 @@
         <v>45</v>
       </c>
       <c r="C13" t="str">
-        <f>VLOOKUP(B13,quads,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>QuadMaximus</v>
       </c>
     </row>
@@ -1702,7 +1877,7 @@
         <v>46</v>
       </c>
       <c r="C14" t="str">
-        <f>VLOOKUP(B14,quads,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>QuadImpressive</v>
       </c>
     </row>
@@ -1715,4 +1890,391 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8316985-0DCE-E34E-ACEB-D3AA3AB3F36C}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>2</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>3</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1E+30</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>3</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1E+30</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0.33333333333333348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1</v>
+      </c>
+      <c r="F16" s="11">
+        <v>4</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.50000000000000022</v>
+      </c>
+      <c r="H16" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>5</v>
+      </c>
+      <c r="G17" s="12">
+        <v>1E+30</v>
+      </c>
+      <c r="H17" s="12">
+        <v>3.666666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D7F01E-F8E8-3449-9E44-56B9ECC140AF}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="3.1640625" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8">
+        <f>SUMPRODUCT(B4:C4,$B$10:$C$10)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:D8" si="0">SUMPRODUCT(B6:C6,$B$10:$C$10)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01_Linear/Nachtfliegen_02.xlsx
+++ b/01_Linear/Nachtfliegen_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/01_Linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32726C06-485B-D449-A330-0F0ED66EDCB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A41B8EB-B31E-CD4A-BAC4-2FE9642ED7C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2520" windowWidth="27640" windowHeight="16940" activeTab="7" xr2:uid="{A7FC1D30-F79D-BE4F-B04A-26AC788931EB}"/>
+    <workbookView xWindow="3820" yWindow="4060" windowWidth="27640" windowHeight="16940" activeTab="7" xr2:uid="{A7FC1D30-F79D-BE4F-B04A-26AC788931EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -1896,7 +1896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8316985-0DCE-E34E-ACEB-D3AA3AB3F36C}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>

--- a/01_Linear/Nachtfliegen_02.xlsx
+++ b/01_Linear/Nachtfliegen_02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/01_Linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A41B8EB-B31E-CD4A-BAC4-2FE9642ED7C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E84AF32-0CAB-9843-A701-B49F1F3FA3F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3820" yWindow="4060" windowWidth="27640" windowHeight="16940" activeTab="7" xr2:uid="{A7FC1D30-F79D-BE4F-B04A-26AC788931EB}"/>
   </bookViews>
@@ -19,98 +19,98 @@
     <sheet name="Abstract2_nice" sheetId="4" r:id="rId4"/>
     <sheet name="Abstract2" sheetId="5" r:id="rId5"/>
     <sheet name="Abstract2Model" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sensitivity Report 1" sheetId="9" r:id="rId8"/>
-    <sheet name="Abstract2_vary" sheetId="8" r:id="rId9"/>
+    <sheet name="Sensitivity Report 1" sheetId="9" r:id="rId7"/>
+    <sheet name="Abstract2_vary" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="quads">Sheet7!$B$2:$E$6</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">Abstract2_nice!$B$10:$C$10</definedName>
-    <definedName name="solver_adj" localSheetId="8" hidden="1">Abstract2_vary!$B$10:$C$10</definedName>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">Abstract2_vary!$B$10:$C$10</definedName>
     <definedName name="solver_adj" localSheetId="5" hidden="1">Abstract2Model!$B$10:$D$10</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="8" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">Abstract2_nice!$D$6:$D$8</definedName>
-    <definedName name="solver_lhs1" localSheetId="8" hidden="1">Abstract2_vary!$D$6:$D$8</definedName>
+    <definedName name="solver_lhs1" localSheetId="7" hidden="1">Abstract2_vary!$D$6:$D$8</definedName>
     <definedName name="solver_lhs1" localSheetId="5" hidden="1">Abstract2Model!$E$6:$E$8</definedName>
     <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_lin" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="8" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="8" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">Abstract2_nice!$D$4</definedName>
-    <definedName name="solver_opt" localSheetId="8" hidden="1">Abstract2_vary!$D$4</definedName>
+    <definedName name="solver_opt" localSheetId="7" hidden="1">Abstract2_vary!$D$4</definedName>
     <definedName name="solver_opt" localSheetId="5" hidden="1">Abstract2Model!$E$4</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="8" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">Abstract2_nice!$F$6:$F$8</definedName>
-    <definedName name="solver_rhs1" localSheetId="8" hidden="1">Abstract2_vary!$F$6:$F$8</definedName>
+    <definedName name="solver_rhs1" localSheetId="7" hidden="1">Abstract2_vary!$F$6:$F$8</definedName>
     <definedName name="solver_rhs1" localSheetId="5" hidden="1">Abstract2Model!$G$6:$G$8</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="8" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="8" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="8" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -522,7 +522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -554,6 +554,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1716,6 +1722,393 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8316985-0DCE-E34E-ACEB-D3AA3AB3F36C}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>2</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>3</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1E+30</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>3</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1E+30</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0.33333333333333348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="11">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1</v>
+      </c>
+      <c r="F16" s="11">
+        <v>4</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.50000000000000022</v>
+      </c>
+      <c r="H16" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>5</v>
+      </c>
+      <c r="G17" s="12">
+        <v>1E+30</v>
+      </c>
+      <c r="H17" s="12">
+        <v>3.666666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D7F01E-F8E8-3449-9E44-56B9ECC140AF}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="3.1640625" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8">
+        <f>SUMPRODUCT(B4:C4,$B$10:$C$10)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16">
+        <f t="shared" ref="D6:D8" si="0">SUMPRODUCT(B6:C6,$B$10:$C$10)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C354B7E-590A-8548-B457-7EB6020E920E}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -1890,391 +2283,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8316985-0DCE-E34E-ACEB-D3AA3AB3F36C}">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
-        <v>2</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>1E+30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12">
-        <v>3</v>
-      </c>
-      <c r="G10" s="12">
-        <v>1E+30</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="11">
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
-        <v>3</v>
-      </c>
-      <c r="G15" s="11">
-        <v>1E+30</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0.33333333333333348</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="11">
-        <v>4</v>
-      </c>
-      <c r="E16" s="11">
-        <v>1</v>
-      </c>
-      <c r="F16" s="11">
-        <v>4</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0.50000000000000022</v>
-      </c>
-      <c r="H16" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="12">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0</v>
-      </c>
-      <c r="F17" s="12">
-        <v>5</v>
-      </c>
-      <c r="G17" s="12">
-        <v>1E+30</v>
-      </c>
-      <c r="H17" s="12">
-        <v>3.666666666666667</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D7F01E-F8E8-3449-9E44-56B9ECC140AF}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="3" width="9.1640625" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="3.1640625" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3</v>
-      </c>
-      <c r="D4" s="8">
-        <f>SUMPRODUCT(B4:C4,$B$10:$C$10)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" ref="D6:D8" si="0">SUMPRODUCT(B6:C6,$B$10:$C$10)</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="6">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="9">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/01_Linear/Nachtfliegen_02.xlsx
+++ b/01_Linear/Nachtfliegen_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/01_Linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E84AF32-0CAB-9843-A701-B49F1F3FA3F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ABBCBF-6E5A-F14D-BF6C-DC4163141579}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="4060" windowWidth="27640" windowHeight="16940" activeTab="7" xr2:uid="{A7FC1D30-F79D-BE4F-B04A-26AC788931EB}"/>
+    <workbookView xWindow="2320" yWindow="1300" windowWidth="29540" windowHeight="19280" firstSheet="1" activeTab="9" xr2:uid="{A7FC1D30-F79D-BE4F-B04A-26AC788931EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -22,96 +22,127 @@
     <sheet name="Sensitivity Report 1" sheetId="9" r:id="rId7"/>
     <sheet name="Abstract2_vary" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId9"/>
+    <sheet name="Sensitivity Report 3" sheetId="12" r:id="rId10"/>
+    <sheet name="excel-easy" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="quads">Sheet7!$B$2:$E$6</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">Abstract2_nice!$B$10:$C$10</definedName>
     <definedName name="solver_adj" localSheetId="7" hidden="1">Abstract2_vary!$B$10:$C$10</definedName>
     <definedName name="solver_adj" localSheetId="5" hidden="1">Abstract2Model!$B$10:$D$10</definedName>
+    <definedName name="solver_adj" localSheetId="10" hidden="1">'excel-easy'!$B$10:$D$10</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="10" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="10" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">Abstract2_nice!$D$6:$D$8</definedName>
     <definedName name="solver_lhs1" localSheetId="7" hidden="1">Abstract2_vary!$D$6:$D$8</definedName>
     <definedName name="solver_lhs1" localSheetId="5" hidden="1">Abstract2Model!$E$6:$E$8</definedName>
+    <definedName name="solver_lhs1" localSheetId="10" hidden="1">'excel-easy'!$E$6:$E$7</definedName>
     <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="10" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="10" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="10" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="10" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">Abstract2_nice!$D$4</definedName>
     <definedName name="solver_opt" localSheetId="7" hidden="1">Abstract2_vary!$D$4</definedName>
     <definedName name="solver_opt" localSheetId="5" hidden="1">Abstract2Model!$E$4</definedName>
+    <definedName name="solver_opt" localSheetId="10" hidden="1">'excel-easy'!$E$4</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="10" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">Abstract2_nice!$F$6:$F$8</definedName>
     <definedName name="solver_rhs1" localSheetId="7" hidden="1">Abstract2_vary!$F$6:$F$8</definedName>
     <definedName name="solver_rhs1" localSheetId="5" hidden="1">Abstract2Model!$G$6:$G$8</definedName>
+    <definedName name="solver_rhs1" localSheetId="10" hidden="1">'excel-easy'!$G$6:$G$7</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="10" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="10" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="10" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="10" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="10" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="10" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -129,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="110">
   <si>
     <t>Nachtfliegen_02</t>
   </si>
@@ -390,6 +421,75 @@
   </si>
   <si>
     <t>$D$8</t>
+  </si>
+  <si>
+    <t>Bicycles</t>
+  </si>
+  <si>
+    <t>https://www.excel-easy.com/examples/sensitivity-analysis.html#reduced-cost</t>
+  </si>
+  <si>
+    <t>Mopeds</t>
+  </si>
+  <si>
+    <t>Child Seats</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Order Size</t>
+  </si>
+  <si>
+    <t>$B$9</t>
+  </si>
+  <si>
+    <t>Order Size Bicycles</t>
+  </si>
+  <si>
+    <t>$C$9</t>
+  </si>
+  <si>
+    <t>Order Size Mopeds</t>
+  </si>
+  <si>
+    <t>$D$9</t>
+  </si>
+  <si>
+    <t>Order Size Child Seats</t>
+  </si>
+  <si>
+    <t>$E$5</t>
+  </si>
+  <si>
+    <t>$E$6</t>
+  </si>
+  <si>
+    <t>Reduced Cost: for Zeroed changing cells, how much would coefficient have to change for changing cell to become non-zero?</t>
+  </si>
+  <si>
+    <t>Objective Coefficient: e.g. $23, Changing-Cell times X</t>
+  </si>
+  <si>
+    <t>Allowable Increase: This solution stays optimal up to…</t>
+  </si>
+  <si>
+    <t>Allowable Decrease: This solution stays optimal down to…</t>
+  </si>
+  <si>
+    <t>Shadow Price: for each extra unit of this Resource, objective function will improve by X</t>
+  </si>
+  <si>
+    <t>Constraint R.H. Side: resource limit</t>
+  </si>
+  <si>
+    <t>Worksheet: [Nachtfliegen_02.xlsx]excel-easy</t>
+  </si>
+  <si>
+    <t>Report Created: 2/6/20 11:11:19 AM</t>
   </si>
 </sst>
 </file>
@@ -400,7 +500,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -432,6 +532,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -522,7 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -560,6 +668,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1103,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAF7CFD-36EB-B946-8904-E54727B0DCE3}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A23" zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1208,46 +1326,574 @@
         <v>14</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+    </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>26</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DBC0CC-BB9D-EC48-971C-A074A176084D}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="11">
+        <v>94</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <v>100</v>
+      </c>
+      <c r="G9" s="11">
+        <v>50</v>
+      </c>
+      <c r="H9" s="11">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="11">
+        <v>54</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>300</v>
+      </c>
+      <c r="G10" s="11">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="H10" s="11">
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>-20</v>
+      </c>
+      <c r="F11" s="12">
+        <v>50</v>
+      </c>
+      <c r="G11" s="12">
+        <v>20</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="11">
+        <v>93000</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="F16" s="11">
+        <v>93000</v>
+      </c>
+      <c r="G16" s="11">
+        <v>28200</v>
+      </c>
+      <c r="H16" s="11">
+        <v>32400.000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="12">
+        <v>101</v>
+      </c>
+      <c r="E17" s="12">
+        <v>100</v>
+      </c>
+      <c r="F17" s="12">
+        <v>101</v>
+      </c>
+      <c r="G17" s="12">
+        <v>54</v>
+      </c>
+      <c r="H17" s="12">
+        <v>23.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BFD83D-DBC2-C049-8BB2-C5D8C2A36F99}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView zoomScale="257" zoomScaleNormal="257" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="6">
+        <v>100</v>
+      </c>
+      <c r="C4" s="6">
+        <v>300</v>
+      </c>
+      <c r="D4" s="6">
+        <v>50</v>
+      </c>
+      <c r="E4" s="18">
+        <f>SUMPRODUCT(B4:D4,$B$10:$D$10)</f>
+        <v>25600</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="6">
+        <v>300</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1200</v>
+      </c>
+      <c r="D6" s="6">
+        <v>120</v>
+      </c>
+      <c r="E6" s="1">
+        <f>SUMPRODUCT(B6:D6,$B$10:$D$10)</f>
+        <v>93000</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="6">
+        <v>93000</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="1">
+        <f>SUMPRODUCT(B7:D7,$B$10:$D$10)</f>
+        <v>101</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="6">
+        <v>101</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="9">
+        <v>94</v>
+      </c>
+      <c r="C10" s="9">
+        <v>54</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1974,7 +2620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D7F01E-F8E8-3449-9E44-56B9ECC140AF}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
+    <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/01_Linear/Nachtfliegen_02.xlsx
+++ b/01_Linear/Nachtfliegen_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/01_Linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ABBCBF-6E5A-F14D-BF6C-DC4163141579}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE8969D-A14F-4244-BACD-F0A6930B01A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="1300" windowWidth="29540" windowHeight="19280" firstSheet="1" activeTab="9" xr2:uid="{A7FC1D30-F79D-BE4F-B04A-26AC788931EB}"/>
+    <workbookView xWindow="5120" yWindow="-21140" windowWidth="29540" windowHeight="19280" activeTab="10" xr2:uid="{A7FC1D30-F79D-BE4F-B04A-26AC788931EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -710,15 +710,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>53948</xdr:colOff>
+      <xdr:colOff>53949</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>52479</xdr:rowOff>
+      <xdr:rowOff>52480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>802933</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>146942</xdr:rowOff>
+      <xdr:colOff>635001</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>199423</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -733,8 +733,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="53948" y="52479"/>
-          <a:ext cx="5692539" cy="3573843"/>
+          <a:off x="53949" y="52480"/>
+          <a:ext cx="5524606" cy="1170290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1407,7 +1407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DBC0CC-BB9D-EC48-971C-A074A176084D}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
       <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
@@ -1656,7 +1656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BFD83D-DBC2-C049-8BB2-C5D8C2A36F99}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="257" zoomScaleNormal="257" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="257" zoomScaleNormal="257" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>

--- a/01_Linear/Nachtfliegen_02.xlsx
+++ b/01_Linear/Nachtfliegen_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/01_Linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE8969D-A14F-4244-BACD-F0A6930B01A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160D9A02-9EC6-1E40-9FF0-AD879EB4A480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="-21140" windowWidth="29540" windowHeight="19280" activeTab="10" xr2:uid="{A7FC1D30-F79D-BE4F-B04A-26AC788931EB}"/>
+    <workbookView xWindow="-5520" yWindow="-27980" windowWidth="45880" windowHeight="20200" activeTab="7" xr2:uid="{A7FC1D30-F79D-BE4F-B04A-26AC788931EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -21,128 +21,158 @@
     <sheet name="Abstract2Model" sheetId="6" r:id="rId6"/>
     <sheet name="Sensitivity Report 1" sheetId="9" r:id="rId7"/>
     <sheet name="Abstract2_vary" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId9"/>
-    <sheet name="Sensitivity Report 3" sheetId="12" r:id="rId10"/>
+    <sheet name="vlookup" sheetId="7" r:id="rId9"/>
+    <sheet name="Sensitivity Report 2" sheetId="13" r:id="rId10"/>
     <sheet name="excel-easy" sheetId="10" r:id="rId11"/>
+    <sheet name="excel-easy-100%" sheetId="14" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="quads">Sheet7!$B$2:$E$6</definedName>
+    <definedName name="quads">vlookup!$B$2:$E$6</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">Abstract2_nice!$B$10:$C$10</definedName>
     <definedName name="solver_adj" localSheetId="7" hidden="1">Abstract2_vary!$B$10:$C$10</definedName>
     <definedName name="solver_adj" localSheetId="5" hidden="1">Abstract2Model!$B$10:$D$10</definedName>
     <definedName name="solver_adj" localSheetId="10" hidden="1">'excel-easy'!$B$10:$D$10</definedName>
+    <definedName name="solver_adj" localSheetId="11" hidden="1">'excel-easy-100%'!$B$10:$D$10</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="10" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="11" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="10" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="11" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">Abstract2_nice!$D$6:$D$8</definedName>
     <definedName name="solver_lhs1" localSheetId="7" hidden="1">Abstract2_vary!$D$6:$D$8</definedName>
     <definedName name="solver_lhs1" localSheetId="5" hidden="1">Abstract2Model!$E$6:$E$8</definedName>
     <definedName name="solver_lhs1" localSheetId="10" hidden="1">'excel-easy'!$E$6:$E$7</definedName>
+    <definedName name="solver_lhs1" localSheetId="11" hidden="1">'excel-easy-100%'!$E$6:$E$7</definedName>
     <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="10" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="11" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="10" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="11" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="10" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="11" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="10" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="11" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">Abstract2_nice!$D$4</definedName>
     <definedName name="solver_opt" localSheetId="7" hidden="1">Abstract2_vary!$D$4</definedName>
     <definedName name="solver_opt" localSheetId="5" hidden="1">Abstract2Model!$E$4</definedName>
     <definedName name="solver_opt" localSheetId="10" hidden="1">'excel-easy'!$E$4</definedName>
+    <definedName name="solver_opt" localSheetId="11" hidden="1">'excel-easy-100%'!$E$4</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="10" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="11" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">Abstract2_nice!$F$6:$F$8</definedName>
     <definedName name="solver_rhs1" localSheetId="7" hidden="1">Abstract2_vary!$F$6:$F$8</definedName>
     <definedName name="solver_rhs1" localSheetId="5" hidden="1">Abstract2Model!$G$6:$G$8</definedName>
     <definedName name="solver_rhs1" localSheetId="10" hidden="1">'excel-easy'!$G$6:$G$7</definedName>
+    <definedName name="solver_rhs1" localSheetId="11" hidden="1">'excel-easy-100%'!$G$6:$G$7</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="10" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="11" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="10" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="11" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="10" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="11" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="10" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="11" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="10" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="11" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="10" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="11" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="10" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="11" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -160,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="114">
   <si>
     <t>Nachtfliegen_02</t>
   </si>
@@ -444,27 +474,15 @@
     <t>Order Size</t>
   </si>
   <si>
-    <t>$B$9</t>
-  </si>
-  <si>
     <t>Order Size Bicycles</t>
   </si>
   <si>
-    <t>$C$9</t>
-  </si>
-  <si>
     <t>Order Size Mopeds</t>
   </si>
   <si>
-    <t>$D$9</t>
-  </si>
-  <si>
     <t>Order Size Child Seats</t>
   </si>
   <si>
-    <t>$E$5</t>
-  </si>
-  <si>
     <t>$E$6</t>
   </si>
   <si>
@@ -489,7 +507,31 @@
     <t>Worksheet: [Nachtfliegen_02.xlsx]excel-easy</t>
   </si>
   <si>
-    <t>Report Created: 2/6/20 11:11:19 AM</t>
+    <t>Microsoft Excel 16.33 Sensitivity Report</t>
+  </si>
+  <si>
+    <t>Report Created: 2/9/20 6:55:55 PM</t>
+  </si>
+  <si>
+    <t>$D$10</t>
+  </si>
+  <si>
+    <t>$E$7</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Bicycle at $130 and Mopeds at $250?</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Mopeds at 325 and Seats at 60?</t>
   </si>
 </sst>
 </file>
@@ -500,7 +542,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -546,6 +588,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color indexed="18"/>
       <name val="Calibri"/>
@@ -630,7 +679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -674,10 +723,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1328,32 +1384,32 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1404,17 +1460,17 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DBC0CC-BB9D-EC48-971C-A074A176084D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0AE8437-5067-9A43-86D1-21B7D93B9704}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -1425,17 +1481,17 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1444,53 +1500,53 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="20" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="21" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>95</v>
       </c>
       <c r="D9" s="11">
         <v>94</v>
@@ -1510,10 +1566,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D10" s="11">
         <v>54</v>
@@ -1533,10 +1589,10 @@
     </row>
     <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D11" s="12">
         <v>0</v>
@@ -1560,50 +1616,50 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="20" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="21" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>91</v>
@@ -1626,7 +1682,7 @@
     </row>
     <row r="17" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>92</v>
@@ -1654,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BFD83D-DBC2-C049-8BB2-C5D8C2A36F99}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="257" zoomScaleNormal="257" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A3" zoomScale="257" zoomScaleNormal="257" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1667,17 +1723,23 @@
     <col min="5" max="5" width="8.5" customWidth="1"/>
     <col min="6" max="6" width="3.5" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" customWidth="1"/>
+    <col min="14" max="15" width="5" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>87</v>
       </c>
@@ -1692,7 +1754,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1713,7 +1775,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1722,7 +1784,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1747,7 +1809,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -1772,7 +1834,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1781,7 +1843,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>87</v>
       </c>
@@ -1792,11 +1854,11 @@
         <v>90</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -1810,90 +1872,694 @@
         <v>0</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G11" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="11">
+        <v>94</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
+        <v>100</v>
+      </c>
+      <c r="L12" s="11">
+        <v>50</v>
+      </c>
+      <c r="M12" s="11">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="11">
+        <v>54</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>300</v>
+      </c>
+      <c r="L13" s="11">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="M13" s="11">
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>-20</v>
+      </c>
+      <c r="K14" s="12">
+        <v>50</v>
+      </c>
+      <c r="L14" s="12">
+        <v>20</v>
+      </c>
+      <c r="M14" s="12">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="7:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G19" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="11">
+        <v>93000</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="K19" s="11">
+        <v>93000</v>
+      </c>
+      <c r="L19" s="11">
+        <v>28200</v>
+      </c>
+      <c r="M19" s="11">
+        <v>32400.000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="7:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="12">
+        <v>101</v>
+      </c>
+      <c r="J20" s="12">
+        <v>100</v>
+      </c>
+      <c r="K20" s="12">
+        <v>101</v>
+      </c>
+      <c r="L20" s="12">
+        <v>54</v>
+      </c>
+      <c r="M20" s="12">
+        <v>23.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC82CD4-6820-9740-A1F2-6038503B6050}">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="257" zoomScaleNormal="257" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" customWidth="1"/>
+    <col min="14" max="16" width="5" customWidth="1"/>
+    <col min="17" max="17" width="1.83203125" customWidth="1"/>
+    <col min="18" max="18" width="4.33203125" customWidth="1"/>
+    <col min="19" max="19" width="3.6640625" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="6">
+        <v>100</v>
+      </c>
+      <c r="C4" s="6">
+        <v>300</v>
+      </c>
+      <c r="D4" s="6">
+        <v>50</v>
+      </c>
+      <c r="E4" s="18">
+        <f>SUMPRODUCT(B4:D4,$B$10:$D$10)</f>
+        <v>25600</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>300</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="6">
+        <v>300</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1200</v>
+      </c>
+      <c r="D6" s="6">
+        <v>120</v>
+      </c>
+      <c r="E6" s="1">
+        <f>SUMPRODUCT(B6:D6,$B$10:$D$10)</f>
+        <v>93000</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="6">
+        <v>93000</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="1">
+        <f>SUMPRODUCT(B7:D7,$B$10:$D$10)</f>
+        <v>101</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="6">
+        <v>101</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="9">
+        <v>94</v>
+      </c>
+      <c r="C10" s="9">
+        <v>54</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="G11" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="T11" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="11">
+        <v>94</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
+        <v>100</v>
+      </c>
+      <c r="L12" s="11">
+        <v>50</v>
+      </c>
+      <c r="M12" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="N12" s="19">
+        <v>130</v>
+      </c>
+      <c r="O12">
+        <f>N12-K12</f>
+        <v>30</v>
+      </c>
+      <c r="P12">
+        <f>O12/L12</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B13" t="str">
+        <f>IF(P15&gt;1,"Must Rerun","No Problem")</f>
+        <v>Must Rerun</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="11">
+        <v>54</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>300</v>
+      </c>
+      <c r="L13" s="11">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="M13" s="11">
+        <v>100.00000000000001</v>
+      </c>
+      <c r="N13" s="19">
+        <v>250</v>
+      </c>
+      <c r="O13">
+        <f>ABS(N13-K13)</f>
+        <v>50</v>
+      </c>
+      <c r="P13">
+        <f>O13/M13</f>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="R13">
+        <v>325</v>
+      </c>
+      <c r="S13">
+        <f>R13-K13</f>
+        <v>25</v>
+      </c>
+      <c r="T13">
+        <f>S13/L13</f>
+        <v>0.37500000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>-20</v>
+      </c>
+      <c r="K14" s="12">
+        <v>50</v>
+      </c>
+      <c r="L14" s="12">
+        <v>20</v>
+      </c>
+      <c r="M14" s="12">
+        <v>1E+30</v>
+      </c>
+      <c r="R14">
+        <v>60</v>
+      </c>
+      <c r="S14">
+        <f>R14-K14</f>
+        <v>10</v>
+      </c>
+      <c r="T14">
+        <f>S14/L14</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="P15">
+        <f>SUM(P12:P14)</f>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="T15">
+        <f>SUM(T12:T14)</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="str">
+        <f>IF(T15&gt;1,"Must Rerun","No Problem")</f>
+        <v>No Problem</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="7:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G19" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="11">
+        <v>93000</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="K19" s="11">
+        <v>93000</v>
+      </c>
+      <c r="L19" s="11">
+        <v>28200</v>
+      </c>
+      <c r="M19" s="11">
+        <v>32400.000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="7:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="12">
+        <v>101</v>
+      </c>
+      <c r="J20" s="12">
+        <v>100</v>
+      </c>
+      <c r="K20" s="12">
+        <v>101</v>
+      </c>
+      <c r="L20" s="12">
+        <v>54</v>
+      </c>
+      <c r="M20" s="12">
+        <v>23.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2620,7 +3286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D7F01E-F8E8-3449-9E44-56B9ECC140AF}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2759,7 +3425,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="238" zoomScaleNormal="238" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2865,6 +3531,10 @@
         <f t="shared" ref="C8:C14" si="0">VLOOKUP(B8,quads,2,FALSE)</f>
         <v>QuadOne</v>
       </c>
+      <c r="E8" t="str">
+        <f>IF(ISNA(VLOOKUP(B8,quads,2,FALSE)),"---",VLOOKUP(B8,quads,2,FALSE))</f>
+        <v>QuadOne</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
@@ -2874,6 +3544,10 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
+      <c r="E9" t="str">
+        <f>IF(ISNA(VLOOKUP(B9,quads,2,FALSE)),"---",VLOOKUP(B9,quads,2,FALSE))</f>
+        <v>---</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -2883,6 +3557,10 @@
         <f t="shared" si="0"/>
         <v>QuadAwesome</v>
       </c>
+      <c r="E10" t="str">
+        <f>IF(ISNA(VLOOKUP(B10,quads,2,FALSE)),"---",VLOOKUP(B10,quads,2,FALSE))</f>
+        <v>QuadAwesome</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
@@ -2892,6 +3570,10 @@
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
+      <c r="E11" t="str">
+        <f>IF(ISNA(VLOOKUP(B11,quads,2,FALSE)),"---",VLOOKUP(B11,quads,2,FALSE))</f>
+        <v>---</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
@@ -2901,6 +3583,10 @@
         <f t="shared" si="0"/>
         <v>QuadThensome</v>
       </c>
+      <c r="E12" t="str">
+        <f>IF(ISNA(VLOOKUP(B12,quads,2,FALSE)),"---",VLOOKUP(B12,quads,2,FALSE))</f>
+        <v>QuadThensome</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
@@ -2910,6 +3596,10 @@
         <f t="shared" si="0"/>
         <v>QuadMaximus</v>
       </c>
+      <c r="E13" t="str">
+        <f>IF(ISNA(VLOOKUP(B13,quads,2,FALSE)),"---",VLOOKUP(B13,quads,2,FALSE))</f>
+        <v>QuadMaximus</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
@@ -2917,6 +3607,10 @@
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
+        <v>QuadImpressive</v>
+      </c>
+      <c r="E14" t="str">
+        <f>IF(ISNA(VLOOKUP(B14,quads,2,FALSE)),"---",VLOOKUP(B14,quads,2,FALSE))</f>
         <v>QuadImpressive</v>
       </c>
     </row>

--- a/01_Linear/Nachtfliegen_02.xlsx
+++ b/01_Linear/Nachtfliegen_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bnr01a/Documents/data/ACU/20S/20S-MS/MSGit/01_Linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160D9A02-9EC6-1E40-9FF0-AD879EB4A480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A86951-1A43-FD46-8EB8-1615552223DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5520" yWindow="-27980" windowWidth="45880" windowHeight="20200" activeTab="7" xr2:uid="{A7FC1D30-F79D-BE4F-B04A-26AC788931EB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="11" xr2:uid="{A7FC1D30-F79D-BE4F-B04A-26AC788931EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -2094,7 +2094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC82CD4-6820-9740-A1F2-6038503B6050}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="257" zoomScaleNormal="257" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="257" zoomScaleNormal="257" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -3286,7 +3286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D7F01E-F8E8-3449-9E44-56B9ECC140AF}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
+    <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -3532,7 +3532,7 @@
         <v>QuadOne</v>
       </c>
       <c r="E8" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,quads,2,FALSE)),"---",VLOOKUP(B8,quads,2,FALSE))</f>
+        <f t="shared" ref="E8:E14" si="1">IF(ISNA(VLOOKUP(B8,quads,2,FALSE)),"---",VLOOKUP(B8,quads,2,FALSE))</f>
         <v>QuadOne</v>
       </c>
     </row>
@@ -3545,7 +3545,7 @@
         <v>#N/A</v>
       </c>
       <c r="E9" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,quads,2,FALSE)),"---",VLOOKUP(B9,quads,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>---</v>
       </c>
     </row>
@@ -3558,7 +3558,7 @@
         <v>QuadAwesome</v>
       </c>
       <c r="E10" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,quads,2,FALSE)),"---",VLOOKUP(B10,quads,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>QuadAwesome</v>
       </c>
     </row>
@@ -3571,7 +3571,7 @@
         <v>#N/A</v>
       </c>
       <c r="E11" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,quads,2,FALSE)),"---",VLOOKUP(B11,quads,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>---</v>
       </c>
     </row>
@@ -3584,7 +3584,7 @@
         <v>QuadThensome</v>
       </c>
       <c r="E12" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,quads,2,FALSE)),"---",VLOOKUP(B12,quads,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>QuadThensome</v>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
         <v>QuadMaximus</v>
       </c>
       <c r="E13" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,quads,2,FALSE)),"---",VLOOKUP(B13,quads,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>QuadMaximus</v>
       </c>
     </row>
@@ -3610,7 +3610,7 @@
         <v>QuadImpressive</v>
       </c>
       <c r="E14" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,quads,2,FALSE)),"---",VLOOKUP(B14,quads,2,FALSE))</f>
+        <f t="shared" si="1"/>
         <v>QuadImpressive</v>
       </c>
     </row>
